--- a/Aufgabenliste.xlsx
+++ b/Aufgabenliste.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jan/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jan/Library/Mobile Documents/com~apple~CloudDocs/Python/GitHub/random-based-tasks-selection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EBF4BDD0-84F9-B344-855C-5112F9F85821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5140CDC9-CAD5-3D46-9EFB-2C19949FFE71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="37960" yWindow="-7360" windowWidth="28240" windowHeight="17240" xr2:uid="{DC03F84C-5ACA-9C44-998D-5B8C09E6C433}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="47">
   <si>
     <t>Topologische Eigenschaften von durch Ungleichungen beschriebene Mengen</t>
   </si>
@@ -174,25 +174,22 @@
   </si>
   <si>
     <t>Zylinderaufgabe</t>
+  </si>
+  <si>
+    <t>Nummer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF2B2B2B"/>
-      <name val="Helvetica"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -221,9 +218,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -541,7 +537,7 @@
   <dimension ref="A1:D63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="D2" sqref="D2:D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -561,6 +557,9 @@
       <c r="C1" t="s">
         <v>17</v>
       </c>
+      <c r="D1" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -572,6 +571,9 @@
       <c r="C2">
         <v>1</v>
       </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -583,6 +585,9 @@
       <c r="C3">
         <v>2</v>
       </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -594,6 +599,9 @@
       <c r="C4">
         <v>3</v>
       </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -605,6 +613,9 @@
       <c r="C5">
         <v>4</v>
       </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -616,6 +627,9 @@
       <c r="C6">
         <v>5</v>
       </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -627,6 +641,9 @@
       <c r="C7">
         <v>6</v>
       </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -638,6 +655,9 @@
       <c r="C8">
         <v>7</v>
       </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -649,6 +669,9 @@
       <c r="C9">
         <v>8</v>
       </c>
+      <c r="D9">
+        <v>7</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -660,8 +683,11 @@
       <c r="C10">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="D10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -671,9 +697,11 @@
       <c r="C11">
         <v>10</v>
       </c>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="D11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -683,9 +711,11 @@
       <c r="C12">
         <v>11</v>
       </c>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="D12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -695,9 +725,11 @@
       <c r="C13">
         <v>1</v>
       </c>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="D13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -707,9 +739,11 @@
       <c r="C14">
         <v>2</v>
       </c>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="D14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -719,9 +753,11 @@
       <c r="C15">
         <v>3</v>
       </c>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="D15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -731,9 +767,11 @@
       <c r="C16">
         <v>4</v>
       </c>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="D16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -743,9 +781,11 @@
       <c r="C17">
         <v>5</v>
       </c>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="D17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -755,9 +795,11 @@
       <c r="C18">
         <v>6</v>
       </c>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="D18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -767,7 +809,9 @@
       <c r="C19">
         <v>7</v>
       </c>
-      <c r="D19" s="1"/>
+      <c r="D19">
+        <v>17</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
@@ -779,6 +823,9 @@
       <c r="C20">
         <v>8</v>
       </c>
+      <c r="D20">
+        <v>18</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
@@ -790,6 +837,9 @@
       <c r="C21">
         <v>9</v>
       </c>
+      <c r="D21">
+        <v>19</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
@@ -801,6 +851,9 @@
       <c r="C22">
         <v>10</v>
       </c>
+      <c r="D22">
+        <v>20</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
@@ -811,6 +864,9 @@
       </c>
       <c r="C23">
         <v>11</v>
+      </c>
+      <c r="D23">
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -823,6 +879,9 @@
       <c r="C24">
         <v>1</v>
       </c>
+      <c r="D24">
+        <v>22</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
@@ -834,6 +893,9 @@
       <c r="C25">
         <v>2</v>
       </c>
+      <c r="D25">
+        <v>23</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
@@ -845,6 +907,9 @@
       <c r="C26">
         <v>3</v>
       </c>
+      <c r="D26">
+        <v>24</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
@@ -856,6 +921,9 @@
       <c r="C27">
         <v>4</v>
       </c>
+      <c r="D27">
+        <v>25</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
@@ -867,6 +935,9 @@
       <c r="C28">
         <v>5</v>
       </c>
+      <c r="D28">
+        <v>26</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
@@ -878,6 +949,9 @@
       <c r="C29">
         <v>6</v>
       </c>
+      <c r="D29">
+        <v>27</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
@@ -889,6 +963,9 @@
       <c r="C30">
         <v>7</v>
       </c>
+      <c r="D30">
+        <v>28</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
@@ -900,6 +977,9 @@
       <c r="C31">
         <v>1</v>
       </c>
+      <c r="D31">
+        <v>29</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
@@ -911,8 +991,11 @@
       <c r="C32">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D32">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>13</v>
       </c>
@@ -922,8 +1005,11 @@
       <c r="C33">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D33">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>13</v>
       </c>
@@ -933,8 +1019,11 @@
       <c r="C34">
         <v>4</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D34">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>13</v>
       </c>
@@ -944,8 +1033,11 @@
       <c r="C35">
         <v>5</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>13</v>
       </c>
@@ -955,8 +1047,11 @@
       <c r="C36">
         <v>6</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D36">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>14</v>
       </c>
@@ -966,8 +1061,11 @@
       <c r="C37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D37">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>14</v>
       </c>
@@ -977,8 +1075,11 @@
       <c r="C38">
         <v>2</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D38">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>14</v>
       </c>
@@ -988,8 +1089,11 @@
       <c r="C39">
         <v>3</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D39">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>14</v>
       </c>
@@ -999,8 +1103,11 @@
       <c r="C40">
         <v>4</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D40">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>14</v>
       </c>
@@ -1010,8 +1117,11 @@
       <c r="C41">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D41">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>14</v>
       </c>
@@ -1021,8 +1131,11 @@
       <c r="C42">
         <v>6</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D42">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>14</v>
       </c>
@@ -1032,8 +1145,11 @@
       <c r="C43">
         <v>7</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D43">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>14</v>
       </c>
@@ -1043,8 +1159,11 @@
       <c r="C44">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D44">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>36</v>
       </c>
@@ -1054,8 +1173,11 @@
       <c r="C45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D45">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>36</v>
       </c>
@@ -1065,8 +1187,11 @@
       <c r="C46">
         <v>2</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D46">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>36</v>
       </c>
@@ -1076,8 +1201,11 @@
       <c r="C47">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D47">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>36</v>
       </c>
@@ -1087,8 +1215,11 @@
       <c r="C48">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D48">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>36</v>
       </c>
@@ -1098,8 +1229,11 @@
       <c r="C49">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D49">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>36</v>
       </c>
@@ -1109,8 +1243,11 @@
       <c r="C50">
         <v>6</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D50">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>36</v>
       </c>
@@ -1120,8 +1257,11 @@
       <c r="C51">
         <v>7</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D51">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>36</v>
       </c>
@@ -1131,8 +1271,11 @@
       <c r="C52">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D52">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>36</v>
       </c>
@@ -1142,8 +1285,11 @@
       <c r="C53">
         <v>9</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D53">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>40</v>
       </c>
@@ -1153,8 +1299,11 @@
       <c r="C54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D54">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>40</v>
       </c>
@@ -1164,8 +1313,11 @@
       <c r="C55">
         <v>2</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D55">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>40</v>
       </c>
@@ -1175,8 +1327,11 @@
       <c r="C56">
         <v>3</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D56">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>40</v>
       </c>
@@ -1186,8 +1341,11 @@
       <c r="C57">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D57">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>40</v>
       </c>
@@ -1197,8 +1355,11 @@
       <c r="C58">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D58">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>40</v>
       </c>
@@ -1208,8 +1369,11 @@
       <c r="C59">
         <v>6</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D59">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>40</v>
       </c>
@@ -1219,8 +1383,11 @@
       <c r="C60">
         <v>7</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D60">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>40</v>
       </c>
@@ -1230,8 +1397,11 @@
       <c r="C61">
         <v>8</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D61">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>40</v>
       </c>
@@ -1241,8 +1411,11 @@
       <c r="C62">
         <v>9</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D62">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>40</v>
       </c>
@@ -1252,9 +1425,12 @@
       <c r="C63">
         <v>10</v>
       </c>
+      <c r="D63">
+        <v>61</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Aufgabenliste.xlsx
+++ b/Aufgabenliste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jan/Library/Mobile Documents/com~apple~CloudDocs/Python/GitHub/random-based-tasks-selection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5140CDC9-CAD5-3D46-9EFB-2C19949FFE71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF65C497-2C49-FD43-851C-9CEFF5272D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="37960" yWindow="-7360" windowWidth="28240" windowHeight="17240" xr2:uid="{DC03F84C-5ACA-9C44-998D-5B8C09E6C433}"/>
   </bookViews>
